--- a/XML/TO_by_executor.xlsx
+++ b/XML/TO_by_executor.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="149">
   <si>
     <t>Исполнитель</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Дата проведения ТО</t>
   </si>
   <si>
-    <t>Контраагент</t>
+    <t>Контрагент</t>
   </si>
   <si>
     <t>УНП</t>
@@ -44,21 +44,450 @@
     <t>Номер ККМ</t>
   </si>
   <si>
-    <t>Бойко Виктория Владимировна</t>
-  </si>
-  <si>
-    <t>Частное предприятие "ВиксанЛогист"</t>
+    <t xml:space="preserve">Гвоздь Владимир </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ОДО «Либефоль»</t>
+  </si>
+  <si>
+    <t>ККМ "Касби-02МФ" ПО v 2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ЧУП "Натастиль"</t>
+  </si>
+  <si>
+    <t>ККМ "Касби-03МФ" v1.0</t>
+  </si>
+  <si>
+    <t>OOO "Соунайс"</t>
+  </si>
+  <si>
+    <t>ККМ "Касби-03Ф"вер v1,5b</t>
+  </si>
+  <si>
+    <t>ИП Валендо Светлана Владимировна</t>
+  </si>
+  <si>
+    <t>ИП Дунаев Сергей Евгеньевич</t>
+  </si>
+  <si>
+    <t>ККМ "Касби-03Ф" v1.5b</t>
+  </si>
+  <si>
+    <t>ИП Етумян Галина Николаевна</t>
+  </si>
+  <si>
+    <t>ИП Кошецян Ашот Эдикович</t>
+  </si>
+  <si>
+    <t>ККМ "Касби-03 Ф" v1.4b</t>
+  </si>
+  <si>
+    <t>ИП Максюков Павел Петрович</t>
+  </si>
+  <si>
+    <t>ИП Матусевич Елена Леонтьевна</t>
+  </si>
+  <si>
+    <t>ИП Хмыз Алексей Александрович</t>
+  </si>
+  <si>
+    <t>ОДО "Дизайн окна"</t>
+  </si>
+  <si>
+    <t>ОДО "Стильный салон"</t>
+  </si>
+  <si>
+    <t>ООО "АрсТур"</t>
+  </si>
+  <si>
+    <t>ООО "Атмосфера паркета"</t>
+  </si>
+  <si>
+    <t>ООО "БелАвтоСпас"</t>
+  </si>
+  <si>
+    <t>ООО "Белинтраст-Ф"</t>
+  </si>
+  <si>
+    <t>ООО "БогемияТрэвел"</t>
+  </si>
+  <si>
+    <t>ООО "ЛаСо-Трейд"</t>
+  </si>
+  <si>
+    <t>ООО "ЧемоданМаркет"</t>
+  </si>
+  <si>
+    <t>ККМ "Касби-03Ф" v1.3b</t>
+  </si>
+  <si>
+    <t>ООО "Этако"</t>
+  </si>
+  <si>
+    <t>ООО «МГ-БАЙ»</t>
+  </si>
+  <si>
+    <t>Унитарное предприятие "СвисТайм-Бел"</t>
+  </si>
+  <si>
+    <t>Частное предприятие "3Д-сити"</t>
+  </si>
+  <si>
+    <t>Частное предприятие "Виторио"</t>
+  </si>
+  <si>
+    <t>Частное предприятие "Студия мебели "Юолла"</t>
+  </si>
+  <si>
+    <t>Частное предприятие "ТашиВА"</t>
+  </si>
+  <si>
+    <t>Частное предприятие "Фан-Фан Тюльпан"</t>
+  </si>
+  <si>
+    <t>ЧП "ФАБ-СТО"</t>
+  </si>
+  <si>
+    <t>ЧТУП  "Надежда-Стиль"</t>
+  </si>
+  <si>
+    <t>ЧТУП "Альтус тур"</t>
+  </si>
+  <si>
+    <t>ЧТУП "ВА-ТА"</t>
+  </si>
+  <si>
+    <t>ЧУП "ЦЕНТР ГРИН КАРД"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ООО "Би -Инвест Техно"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Филиал "Автомобильный парк № 19" ОАО "Миноблавтотранс"</t>
+  </si>
+  <si>
+    <t>ККМ "Касби-03Ф" Т v2.3b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ККМ "Касби-03Ф"Т v2.2b </t>
   </si>
   <si>
     <t>ККМ "Касби-03Ф"Т v2.5b</t>
+  </si>
+  <si>
+    <t>ИП Палыга Мария Николаевна</t>
+  </si>
+  <si>
+    <t>УП "Звезда Удачи"</t>
+  </si>
+  <si>
+    <t>УП "Минское отделение Белорусской железной дороги" оздоровительный центр "Талька"</t>
+  </si>
+  <si>
+    <t>Иностранное частное предприятие "ВИАРЛАЙНС"</t>
+  </si>
+  <si>
+    <t>ККМ "Касби-03Ф" трансп.вариант</t>
+  </si>
+  <si>
+    <t>ИП Котов Вячеслав Игоревич</t>
+  </si>
+  <si>
+    <t>ККМ "Касби-03МФ" V2.3.0</t>
+  </si>
+  <si>
+    <t>ИП Рабынин Игорь Александрович</t>
+  </si>
+  <si>
+    <t>ОАО "Стройтрест № 1 "Спорткомбинат Лазурный"</t>
+  </si>
+  <si>
+    <t>ККМ "Касби-02МФ" v1.0</t>
+  </si>
+  <si>
+    <t>ОДО "Фиалка-92"</t>
+  </si>
+  <si>
+    <t>ООО "Автотехцентр Варди"</t>
+  </si>
+  <si>
+    <t>ООО "Белпа-мед"</t>
+  </si>
+  <si>
+    <t>ООО "БЕЛРЕМАВТО"</t>
+  </si>
+  <si>
+    <t>ООО "Земля Велеса"</t>
+  </si>
+  <si>
+    <t>ООО "Курсор- Голд"</t>
+  </si>
+  <si>
+    <t>ООО "Фострейд"</t>
+  </si>
+  <si>
+    <t>УП "Либра-2000"</t>
+  </si>
+  <si>
+    <t>Частное предприятие "ЗооЭкспресс"</t>
+  </si>
+  <si>
+    <t>Частное предприятие "СК Мотор"</t>
+  </si>
+  <si>
+    <t>Частное предприятиеП "АИ-ПРОД"</t>
+  </si>
+  <si>
+    <t>ЧМУП "Гармония-Дент"</t>
+  </si>
+  <si>
+    <t>ЧП "Аланавто"</t>
+  </si>
+  <si>
+    <t>ЧП СТО-М-Электро</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ОДО "Еврошарм"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ООО "Трикерамик"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ООО «Глобал парк»</t>
+  </si>
+  <si>
+    <t>ИП  Хороненко Алекснадр Сергеевич</t>
+  </si>
+  <si>
+    <t>ИП Волохонович Юлия Петровна</t>
+  </si>
+  <si>
+    <t>ИП Дашкевич Дмитрий Геннадьевич</t>
+  </si>
+  <si>
+    <t>ИП Дементьев Владимир Владимирович</t>
+  </si>
+  <si>
+    <t>ИП Ильченко Евгений Сергеевич</t>
+  </si>
+  <si>
+    <t>ИП Ильючек Людмила Андреевна</t>
+  </si>
+  <si>
+    <t>ИП Ключник Олег Данусевич</t>
+  </si>
+  <si>
+    <t>ИП Костюк Дмитрий Александрович</t>
+  </si>
+  <si>
+    <t>ИП Павлов Иван Борисович</t>
+  </si>
+  <si>
+    <t>ИП Пашкур Елизавета Константиновна</t>
+  </si>
+  <si>
+    <t>ИП Потапова Наталья Владимировна</t>
+  </si>
+  <si>
+    <t>ИП Филиппович Евгений Николаевич</t>
+  </si>
+  <si>
+    <t>ИП Фисько Стелла Арнольдовна</t>
+  </si>
+  <si>
+    <t>ОДО "Подкат"</t>
+  </si>
+  <si>
+    <t>ООО "Бизнес Голд"</t>
+  </si>
+  <si>
+    <t>ООО "БонаПай"</t>
+  </si>
+  <si>
+    <t>ООО "Вилрент"</t>
+  </si>
+  <si>
+    <t>ООО "Висма-строй"</t>
+  </si>
+  <si>
+    <t>ООО "ГлавПит"</t>
+  </si>
+  <si>
+    <t>ООО "ГудКарс"</t>
+  </si>
+  <si>
+    <t>ООО "Зеленое Яблочко"</t>
+  </si>
+  <si>
+    <t>ООО "ИнгузСтиль"</t>
+  </si>
+  <si>
+    <t>ООО "Мамина тема"</t>
+  </si>
+  <si>
+    <t>УП "Вода 2000"</t>
+  </si>
+  <si>
+    <t>Частное предприятие "Боздаг"</t>
+  </si>
+  <si>
+    <t>Частное предприятие "ЗШБРМ-авто"</t>
+  </si>
+  <si>
+    <t>Частное предприятие "ИС-7"</t>
+  </si>
+  <si>
+    <t>ЧП "Марченко"</t>
+  </si>
+  <si>
+    <t>ЧТУП "Альфа-Пресс"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ООО "Актив-Рент"</t>
+  </si>
+  <si>
+    <t>ИООО "Атлант-М Холпи"</t>
+  </si>
+  <si>
+    <t>ИП Лемеш Игорь Николаевич</t>
+  </si>
+  <si>
+    <t>ОДО "Парикмахерская "Фламинго""</t>
+  </si>
+  <si>
+    <t>ООО "Орэнж-Рент"</t>
+  </si>
+  <si>
+    <t>ООО "ТАТЭМ Плюс"</t>
+  </si>
+  <si>
+    <t>ООО "Ярго"</t>
+  </si>
+  <si>
+    <t>ООО Бабочки</t>
+  </si>
+  <si>
+    <t>Торговое унитарное предприятие "Пинскдрев Столичное"</t>
+  </si>
+  <si>
+    <t>Частное предприятие "АудитСтар"</t>
+  </si>
+  <si>
+    <t>Частное предприятие "КомЛайнсервис"</t>
+  </si>
+  <si>
+    <t>Частное унитарное предприятие по оказанию услуг "Малина-Тех"</t>
+  </si>
+  <si>
+    <t>ЧТУП "Лайкюжн"</t>
+  </si>
+  <si>
+    <t>ЧУП "Инфаст-Авто"</t>
+  </si>
+  <si>
+    <t>ИП Селиванова Каролина Александровна</t>
+  </si>
+  <si>
+    <t>ОДО "Тимоли"</t>
+  </si>
+  <si>
+    <t>ООО "ДИТС-сервис"</t>
+  </si>
+  <si>
+    <t>Частное предприятие  "БЕЛ ТОРГ ГРУПП"</t>
+  </si>
+  <si>
+    <t>Частное предприятие "Бюро красоты"</t>
+  </si>
+  <si>
+    <t>OOO "Фортуна-Авто"</t>
+  </si>
+  <si>
+    <t>ГПК "Клаксон"</t>
+  </si>
+  <si>
+    <t>ИП Адамонис Мария Владимировна</t>
+  </si>
+  <si>
+    <t>ИП Безносик Светлана Сергеевна</t>
+  </si>
+  <si>
+    <t>ИП Гончаров Дмитрий Алексеевич</t>
+  </si>
+  <si>
+    <t>ИП Григорьева Наталья Владимировна</t>
+  </si>
+  <si>
+    <t>ИП Стебо Татьяна Степановна</t>
+  </si>
+  <si>
+    <t>ИП Якимченко Анатолий Петрович</t>
+  </si>
+  <si>
+    <t>ООО  "Евровиза"</t>
+  </si>
+  <si>
+    <t>ККМ "Касби-03МФ"  v8.0</t>
+  </si>
+  <si>
+    <t>ООО "АП"Евровиза "</t>
+  </si>
+  <si>
+    <t>ООО "Белсанита М"</t>
+  </si>
+  <si>
+    <t>ООО "ГолдСпецАвтоГрупп"</t>
+  </si>
+  <si>
+    <t>ООО "Лаки Лайф"</t>
+  </si>
+  <si>
+    <t>ООО "Малибу-Трэвел"</t>
+  </si>
+  <si>
+    <t>ООО "ТПК Евровиза"</t>
+  </si>
+  <si>
+    <t>Религиозная Община "Приход в честь Всех Святых в г. Минске Минской Епархии Белорусской Православной Церкви" г. Минск</t>
+  </si>
+  <si>
+    <t>УП "18"</t>
+  </si>
+  <si>
+    <t>УП "Абакосан"</t>
+  </si>
+  <si>
+    <t>Частное предприятие "Белторглайт"</t>
+  </si>
+  <si>
+    <t>Частное предприятие "РУФСЕРВИС"</t>
+  </si>
+  <si>
+    <t>ЧП Гермини</t>
+  </si>
+  <si>
+    <t>ЧТУП "МОДАЛАЙН"</t>
+  </si>
+  <si>
+    <t>ЧУП "АВАЛОН-ТУР"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -87,8 +516,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -370,36 +800,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="50.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -407,23 +838,4924 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1">
-        <v>43069</v>
+      <c r="B2" s="2">
+        <v>43082</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2">
-        <v>291254601</v>
+        <v>192042954</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2">
-        <v>21300352</v>
+        <v>21600034</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43082</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>190901876</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>21400004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43082</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>191804984</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>21003538</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43082</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>191634603</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>21400406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43082</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>190945151</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>21001947</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43082</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>190262280</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>21000718</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43082</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>190271722</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>20800362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43082</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>691311981</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>21400061</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2">
+        <v>43082</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>190205077</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>21400280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43082</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>191676976</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>21003731</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2">
+        <v>43082</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>190593102</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>21500637</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2">
+        <v>43082</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>190810041</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>20717189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2">
+        <v>43082</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>191113940</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>21600026</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2">
+        <v>43082</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>192818907</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>21500175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2">
+        <v>43082</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>691131678</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>21300169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="2">
+        <v>43082</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17">
+        <v>101049782</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>21300156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2">
+        <v>43082</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18">
+        <v>101049782</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>21300203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2">
+        <v>43082</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19">
+        <v>192198454</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>21300394</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2">
+        <v>43082</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20">
+        <v>192496417</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>21300515</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2">
+        <v>43082</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>192342749</v>
+      </c>
+      <c r="E21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21">
+        <v>20301827</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2">
+        <v>43082</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22">
+        <v>690566151</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>21300074</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2">
+        <v>43082</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23">
+        <v>192459582</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>21300319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2">
+        <v>43082</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24">
+        <v>190732239</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>21300512</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2">
+        <v>43082</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25">
+        <v>690711427</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <v>21600084</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="2">
+        <v>43082</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26">
+        <v>690630536</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>21400569</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="2">
+        <v>43082</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27">
+        <v>490800911</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>21500150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="2">
+        <v>43082</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28">
+        <v>192755938</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>21600014</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="2">
+        <v>43082</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29">
+        <v>190910021</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>21500604</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="2">
+        <v>43082</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30">
+        <v>690532426</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30">
+        <v>20801889</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="2">
+        <v>43082</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31">
+        <v>190533326</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>21300743</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="2">
+        <v>43082</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32">
+        <v>190533326</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32">
+        <v>21001617</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="2">
+        <v>43082</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33">
+        <v>190533326</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33">
+        <v>21003736</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="2">
+        <v>43082</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34">
+        <v>190709041</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34">
+        <v>21003765</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="2">
+        <v>43082</v>
+      </c>
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35">
+        <v>191803669</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35">
+        <v>21100021</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="2">
+        <v>43082</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36">
+        <v>190635697</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>21400102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37">
+        <v>191685119</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>21300691</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38">
+        <v>601070369</v>
+      </c>
+      <c r="E38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38">
+        <v>20615347</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39">
+        <v>601070369</v>
+      </c>
+      <c r="E39" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39">
+        <v>20615365</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40">
+        <v>601070369</v>
+      </c>
+      <c r="E40" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40">
+        <v>20615413</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41">
+        <v>601070369</v>
+      </c>
+      <c r="E41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41">
+        <v>20615427</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42">
+        <v>601070369</v>
+      </c>
+      <c r="E42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42">
+        <v>20615459</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43">
+        <v>601070369</v>
+      </c>
+      <c r="E43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43">
+        <v>20615867</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44">
+        <v>601070369</v>
+      </c>
+      <c r="E44" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44">
+        <v>20615961</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45">
+        <v>601070369</v>
+      </c>
+      <c r="E45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45">
+        <v>20615971</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46">
+        <v>601070369</v>
+      </c>
+      <c r="E46" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46">
+        <v>20615989</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47">
+        <v>601070369</v>
+      </c>
+      <c r="E47" t="s">
+        <v>47</v>
+      </c>
+      <c r="F47">
+        <v>20616007</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48">
+        <v>601070369</v>
+      </c>
+      <c r="E48" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48">
+        <v>20616033</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49">
+        <v>601070369</v>
+      </c>
+      <c r="E49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F49">
+        <v>20616082</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50">
+        <v>601070369</v>
+      </c>
+      <c r="E50" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50">
+        <v>20616114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C51" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51">
+        <v>601070369</v>
+      </c>
+      <c r="E51" t="s">
+        <v>47</v>
+      </c>
+      <c r="F51">
+        <v>20616139</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52">
+        <v>601070369</v>
+      </c>
+      <c r="E52" t="s">
+        <v>47</v>
+      </c>
+      <c r="F52">
+        <v>20616146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53">
+        <v>601070369</v>
+      </c>
+      <c r="E53" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53">
+        <v>20616148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C54" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54">
+        <v>601070369</v>
+      </c>
+      <c r="E54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F54">
+        <v>20616174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55">
+        <v>601070369</v>
+      </c>
+      <c r="E55" t="s">
+        <v>47</v>
+      </c>
+      <c r="F55">
+        <v>20700670</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C56" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56">
+        <v>601070369</v>
+      </c>
+      <c r="E56" t="s">
+        <v>47</v>
+      </c>
+      <c r="F56">
+        <v>20700676</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C57" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57">
+        <v>601070369</v>
+      </c>
+      <c r="E57" t="s">
+        <v>47</v>
+      </c>
+      <c r="F57">
+        <v>20700683</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C58" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58">
+        <v>601070369</v>
+      </c>
+      <c r="E58" t="s">
+        <v>47</v>
+      </c>
+      <c r="F58">
+        <v>20700740</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C59" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59">
+        <v>601070369</v>
+      </c>
+      <c r="E59" t="s">
+        <v>47</v>
+      </c>
+      <c r="F59">
+        <v>20717442</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C60" t="s">
+        <v>46</v>
+      </c>
+      <c r="D60">
+        <v>601070369</v>
+      </c>
+      <c r="E60" t="s">
+        <v>47</v>
+      </c>
+      <c r="F60">
+        <v>20717464</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C61" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61">
+        <v>601070369</v>
+      </c>
+      <c r="E61" t="s">
+        <v>47</v>
+      </c>
+      <c r="F61">
+        <v>20717538</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C62" t="s">
+        <v>46</v>
+      </c>
+      <c r="D62">
+        <v>601070369</v>
+      </c>
+      <c r="E62" t="s">
+        <v>47</v>
+      </c>
+      <c r="F62">
+        <v>20717586</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C63" t="s">
+        <v>46</v>
+      </c>
+      <c r="D63">
+        <v>601070369</v>
+      </c>
+      <c r="E63" t="s">
+        <v>47</v>
+      </c>
+      <c r="F63">
+        <v>20800863</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C64" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64">
+        <v>601070369</v>
+      </c>
+      <c r="E64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F64">
+        <v>20800969</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C65" t="s">
+        <v>46</v>
+      </c>
+      <c r="D65">
+        <v>601070369</v>
+      </c>
+      <c r="E65" t="s">
+        <v>47</v>
+      </c>
+      <c r="F65">
+        <v>20801024</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C66" t="s">
+        <v>46</v>
+      </c>
+      <c r="D66">
+        <v>601070369</v>
+      </c>
+      <c r="E66" t="s">
+        <v>47</v>
+      </c>
+      <c r="F66">
+        <v>20801061</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C67" t="s">
+        <v>46</v>
+      </c>
+      <c r="D67">
+        <v>601070369</v>
+      </c>
+      <c r="E67" t="s">
+        <v>47</v>
+      </c>
+      <c r="F67">
+        <v>20802020</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C68" t="s">
+        <v>46</v>
+      </c>
+      <c r="D68">
+        <v>601070369</v>
+      </c>
+      <c r="E68" t="s">
+        <v>48</v>
+      </c>
+      <c r="F68">
+        <v>20614284</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C69" t="s">
+        <v>46</v>
+      </c>
+      <c r="D69">
+        <v>601070369</v>
+      </c>
+      <c r="E69" t="s">
+        <v>48</v>
+      </c>
+      <c r="F69">
+        <v>20614354</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C70" t="s">
+        <v>46</v>
+      </c>
+      <c r="D70">
+        <v>601070369</v>
+      </c>
+      <c r="E70" t="s">
+        <v>49</v>
+      </c>
+      <c r="F70">
+        <v>21001219</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C71" t="s">
+        <v>46</v>
+      </c>
+      <c r="D71">
+        <v>601070369</v>
+      </c>
+      <c r="E71" t="s">
+        <v>49</v>
+      </c>
+      <c r="F71">
+        <v>21001324</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C72" t="s">
+        <v>46</v>
+      </c>
+      <c r="D72">
+        <v>601070369</v>
+      </c>
+      <c r="E72" t="s">
+        <v>49</v>
+      </c>
+      <c r="F72">
+        <v>21001325</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C73" t="s">
+        <v>46</v>
+      </c>
+      <c r="D73">
+        <v>601070369</v>
+      </c>
+      <c r="E73" t="s">
+        <v>49</v>
+      </c>
+      <c r="F73">
+        <v>21001573</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C74" t="s">
+        <v>46</v>
+      </c>
+      <c r="D74">
+        <v>601070369</v>
+      </c>
+      <c r="E74" t="s">
+        <v>49</v>
+      </c>
+      <c r="F74">
+        <v>21001680</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C75" t="s">
+        <v>50</v>
+      </c>
+      <c r="D75">
+        <v>690290193</v>
+      </c>
+      <c r="E75" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75">
+        <v>21500125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C76" t="s">
+        <v>51</v>
+      </c>
+      <c r="D76">
+        <v>190414788</v>
+      </c>
+      <c r="E76" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76">
+        <v>21300564</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C77" t="s">
+        <v>52</v>
+      </c>
+      <c r="D77">
+        <v>600307280</v>
+      </c>
+      <c r="E77" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77">
+        <v>20701264</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C78" t="s">
+        <v>52</v>
+      </c>
+      <c r="D78">
+        <v>600307280</v>
+      </c>
+      <c r="E78" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78">
+        <v>20717213</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="2">
+        <v>43083</v>
+      </c>
+      <c r="C79" t="s">
+        <v>52</v>
+      </c>
+      <c r="D79">
+        <v>600307280</v>
+      </c>
+      <c r="E79" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79">
+        <v>21003596</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="2">
+        <v>43089</v>
+      </c>
+      <c r="C80" t="s">
+        <v>53</v>
+      </c>
+      <c r="D80">
+        <v>190810067</v>
+      </c>
+      <c r="E80" t="s">
+        <v>54</v>
+      </c>
+      <c r="F80">
+        <v>21003673</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="2">
+        <v>43089</v>
+      </c>
+      <c r="C81" t="s">
+        <v>53</v>
+      </c>
+      <c r="D81">
+        <v>190810067</v>
+      </c>
+      <c r="E81" t="s">
+        <v>49</v>
+      </c>
+      <c r="F81">
+        <v>21004114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="2">
+        <v>43089</v>
+      </c>
+      <c r="C82" t="s">
+        <v>55</v>
+      </c>
+      <c r="D82">
+        <v>790749631</v>
+      </c>
+      <c r="E82" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82">
+        <v>20801547</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="2">
+        <v>43089</v>
+      </c>
+      <c r="C83" t="s">
+        <v>55</v>
+      </c>
+      <c r="D83">
+        <v>790749631</v>
+      </c>
+      <c r="E83" t="s">
+        <v>56</v>
+      </c>
+      <c r="F83">
+        <v>21700305</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="2">
+        <v>43089</v>
+      </c>
+      <c r="C84" t="s">
+        <v>57</v>
+      </c>
+      <c r="D84">
+        <v>100261166</v>
+      </c>
+      <c r="E84" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84">
+        <v>21300316</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="2">
+        <v>43089</v>
+      </c>
+      <c r="C85" t="s">
+        <v>58</v>
+      </c>
+      <c r="D85">
+        <v>102364627</v>
+      </c>
+      <c r="E85" t="s">
+        <v>59</v>
+      </c>
+      <c r="F85">
+        <v>2110000000015</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" s="2">
+        <v>43089</v>
+      </c>
+      <c r="C86" t="s">
+        <v>58</v>
+      </c>
+      <c r="D86">
+        <v>102364627</v>
+      </c>
+      <c r="E86" t="s">
+        <v>15</v>
+      </c>
+      <c r="F86">
+        <v>21001420</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="2">
+        <v>43089</v>
+      </c>
+      <c r="C87" t="s">
+        <v>60</v>
+      </c>
+      <c r="D87">
+        <v>100185450</v>
+      </c>
+      <c r="E87" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87">
+        <v>21400068</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" s="2">
+        <v>43089</v>
+      </c>
+      <c r="C88" t="s">
+        <v>61</v>
+      </c>
+      <c r="D88">
+        <v>190657573</v>
+      </c>
+      <c r="E88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F88">
+        <v>20616512</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="2">
+        <v>43089</v>
+      </c>
+      <c r="C89" t="s">
+        <v>62</v>
+      </c>
+      <c r="D89">
+        <v>800007404</v>
+      </c>
+      <c r="E89" t="s">
+        <v>59</v>
+      </c>
+      <c r="F89">
+        <v>2100000000148</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" s="2">
+        <v>43089</v>
+      </c>
+      <c r="C90" t="s">
+        <v>63</v>
+      </c>
+      <c r="D90">
+        <v>192220920</v>
+      </c>
+      <c r="E90" t="s">
+        <v>56</v>
+      </c>
+      <c r="F90">
+        <v>21700287</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" s="2">
+        <v>43089</v>
+      </c>
+      <c r="C91" t="s">
+        <v>64</v>
+      </c>
+      <c r="D91">
+        <v>191442627</v>
+      </c>
+      <c r="E91" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91">
+        <v>21300266</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" s="2">
+        <v>43089</v>
+      </c>
+      <c r="C92" t="s">
+        <v>65</v>
+      </c>
+      <c r="D92">
+        <v>191766410</v>
+      </c>
+      <c r="E92" t="s">
+        <v>18</v>
+      </c>
+      <c r="F92">
+        <v>20802073</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" s="2">
+        <v>43089</v>
+      </c>
+      <c r="C93" t="s">
+        <v>66</v>
+      </c>
+      <c r="D93">
+        <v>190465158</v>
+      </c>
+      <c r="E93" t="s">
+        <v>15</v>
+      </c>
+      <c r="F93">
+        <v>21000524</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" s="2">
+        <v>43089</v>
+      </c>
+      <c r="C94" t="s">
+        <v>67</v>
+      </c>
+      <c r="D94">
+        <v>190221473</v>
+      </c>
+      <c r="E94" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94">
+        <v>21300377</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" s="2">
+        <v>43089</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95">
+        <v>191226906</v>
+      </c>
+      <c r="E95" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95">
+        <v>21600030</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="2">
+        <v>43089</v>
+      </c>
+      <c r="C96" t="s">
+        <v>69</v>
+      </c>
+      <c r="D96">
+        <v>190829571</v>
+      </c>
+      <c r="E96" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96">
+        <v>21300514</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" s="2">
+        <v>43089</v>
+      </c>
+      <c r="C97" t="s">
+        <v>70</v>
+      </c>
+      <c r="D97">
+        <v>191004049</v>
+      </c>
+      <c r="E97" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97">
+        <v>21003950</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="2">
+        <v>43089</v>
+      </c>
+      <c r="C98" t="s">
+        <v>71</v>
+      </c>
+      <c r="D98">
+        <v>191086990</v>
+      </c>
+      <c r="E98" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98">
+        <v>21300731</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="2">
+        <v>43089</v>
+      </c>
+      <c r="C99" t="s">
+        <v>72</v>
+      </c>
+      <c r="D99">
+        <v>190841520</v>
+      </c>
+      <c r="E99" t="s">
+        <v>18</v>
+      </c>
+      <c r="F99">
+        <v>20801431</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" s="2">
+        <v>43089</v>
+      </c>
+      <c r="C100" t="s">
+        <v>73</v>
+      </c>
+      <c r="D100">
+        <v>192388027</v>
+      </c>
+      <c r="E100" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100">
+        <v>21400250</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" s="2">
+        <v>43090</v>
+      </c>
+      <c r="C101" t="s">
+        <v>74</v>
+      </c>
+      <c r="D101">
+        <v>190627657</v>
+      </c>
+      <c r="E101" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101">
+        <v>21400010</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" s="2">
+        <v>43090</v>
+      </c>
+      <c r="C102" t="s">
+        <v>75</v>
+      </c>
+      <c r="D102">
+        <v>192044518</v>
+      </c>
+      <c r="E102" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102">
+        <v>21300623</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="2">
+        <v>43090</v>
+      </c>
+      <c r="C103" t="s">
+        <v>76</v>
+      </c>
+      <c r="D103">
+        <v>192543787</v>
+      </c>
+      <c r="E103" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103">
+        <v>21600036</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" s="2">
+        <v>43090</v>
+      </c>
+      <c r="C104" t="s">
+        <v>77</v>
+      </c>
+      <c r="D104">
+        <v>190895288</v>
+      </c>
+      <c r="E104" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104">
+        <v>21400220</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" s="2">
+        <v>43090</v>
+      </c>
+      <c r="C105" t="s">
+        <v>78</v>
+      </c>
+      <c r="D105">
+        <v>690432234</v>
+      </c>
+      <c r="E105" t="s">
+        <v>15</v>
+      </c>
+      <c r="F105">
+        <v>21003970</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" s="2">
+        <v>43090</v>
+      </c>
+      <c r="C106" t="s">
+        <v>79</v>
+      </c>
+      <c r="D106">
+        <v>691456442</v>
+      </c>
+      <c r="E106" t="s">
+        <v>18</v>
+      </c>
+      <c r="F106">
+        <v>20717081</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" s="2">
+        <v>43090</v>
+      </c>
+      <c r="C107" t="s">
+        <v>80</v>
+      </c>
+      <c r="D107">
+        <v>691806261</v>
+      </c>
+      <c r="E107" t="s">
+        <v>18</v>
+      </c>
+      <c r="F107">
+        <v>20614890</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" s="2">
+        <v>43090</v>
+      </c>
+      <c r="C108" t="s">
+        <v>81</v>
+      </c>
+      <c r="D108">
+        <v>192618232</v>
+      </c>
+      <c r="E108" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108">
+        <v>21100394</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" s="2">
+        <v>43090</v>
+      </c>
+      <c r="C109" t="s">
+        <v>82</v>
+      </c>
+      <c r="D109">
+        <v>100449496</v>
+      </c>
+      <c r="E109" t="s">
+        <v>15</v>
+      </c>
+      <c r="F109">
+        <v>21004068</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" s="2">
+        <v>43090</v>
+      </c>
+      <c r="C110" t="s">
+        <v>83</v>
+      </c>
+      <c r="D110">
+        <v>192455972</v>
+      </c>
+      <c r="E110" t="s">
+        <v>10</v>
+      </c>
+      <c r="F110">
+        <v>21500320</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" s="2">
+        <v>43090</v>
+      </c>
+      <c r="C111" t="s">
+        <v>84</v>
+      </c>
+      <c r="D111">
+        <v>192495094</v>
+      </c>
+      <c r="E111" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111">
+        <v>21500646</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" s="2">
+        <v>43090</v>
+      </c>
+      <c r="C112" t="s">
+        <v>85</v>
+      </c>
+      <c r="D112">
+        <v>691390816</v>
+      </c>
+      <c r="E112" t="s">
+        <v>15</v>
+      </c>
+      <c r="F112">
+        <v>21004464</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" s="2">
+        <v>43090</v>
+      </c>
+      <c r="C113" t="s">
+        <v>86</v>
+      </c>
+      <c r="D113">
+        <v>192606572</v>
+      </c>
+      <c r="E113" t="s">
+        <v>10</v>
+      </c>
+      <c r="F113">
+        <v>21500463</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" s="2">
+        <v>43090</v>
+      </c>
+      <c r="C114" t="s">
+        <v>87</v>
+      </c>
+      <c r="D114">
+        <v>190879476</v>
+      </c>
+      <c r="E114" t="s">
+        <v>10</v>
+      </c>
+      <c r="F114">
+        <v>21300459</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" s="2">
+        <v>43090</v>
+      </c>
+      <c r="C115" t="s">
+        <v>88</v>
+      </c>
+      <c r="D115">
+        <v>191784692</v>
+      </c>
+      <c r="E115" t="s">
+        <v>18</v>
+      </c>
+      <c r="F115">
+        <v>20615716</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" s="2">
+        <v>43090</v>
+      </c>
+      <c r="C116" t="s">
+        <v>89</v>
+      </c>
+      <c r="D116">
+        <v>190912820</v>
+      </c>
+      <c r="E116" t="s">
+        <v>18</v>
+      </c>
+      <c r="F116">
+        <v>20801882</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" s="2">
+        <v>43090</v>
+      </c>
+      <c r="C117" t="s">
+        <v>90</v>
+      </c>
+      <c r="D117">
+        <v>190485588</v>
+      </c>
+      <c r="E117" t="s">
+        <v>15</v>
+      </c>
+      <c r="F117">
+        <v>21000523</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" s="2">
+        <v>43090</v>
+      </c>
+      <c r="C118" t="s">
+        <v>91</v>
+      </c>
+      <c r="D118">
+        <v>191684883</v>
+      </c>
+      <c r="E118" t="s">
+        <v>15</v>
+      </c>
+      <c r="F118">
+        <v>21002518</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" s="2">
+        <v>43090</v>
+      </c>
+      <c r="C119" t="s">
+        <v>92</v>
+      </c>
+      <c r="D119">
+        <v>691817456</v>
+      </c>
+      <c r="E119" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119">
+        <v>21600022</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120" s="2">
+        <v>43090</v>
+      </c>
+      <c r="C120" t="s">
+        <v>93</v>
+      </c>
+      <c r="D120">
+        <v>691753238</v>
+      </c>
+      <c r="E120" t="s">
+        <v>15</v>
+      </c>
+      <c r="F120">
+        <v>21001300</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" s="2">
+        <v>43090</v>
+      </c>
+      <c r="C121" t="s">
+        <v>94</v>
+      </c>
+      <c r="D121">
+        <v>190476077</v>
+      </c>
+      <c r="E121" t="s">
+        <v>15</v>
+      </c>
+      <c r="F121">
+        <v>21004246</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" s="2">
+        <v>43090</v>
+      </c>
+      <c r="C122" t="s">
+        <v>95</v>
+      </c>
+      <c r="D122">
+        <v>192505343</v>
+      </c>
+      <c r="E122" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122">
+        <v>21300159</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" s="2">
+        <v>43090</v>
+      </c>
+      <c r="C123" t="s">
+        <v>95</v>
+      </c>
+      <c r="D123">
+        <v>192505343</v>
+      </c>
+      <c r="E123" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123">
+        <v>21300316</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" s="2">
+        <v>43090</v>
+      </c>
+      <c r="C124" t="s">
+        <v>95</v>
+      </c>
+      <c r="D124">
+        <v>192505343</v>
+      </c>
+      <c r="E124" t="s">
+        <v>8</v>
+      </c>
+      <c r="F124">
+        <v>21400079</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" s="2">
+        <v>43090</v>
+      </c>
+      <c r="C125" t="s">
+        <v>96</v>
+      </c>
+      <c r="D125">
+        <v>191117933</v>
+      </c>
+      <c r="E125" t="s">
+        <v>59</v>
+      </c>
+      <c r="F125">
+        <v>2120000000076</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126" s="2">
+        <v>43090</v>
+      </c>
+      <c r="C126" t="s">
+        <v>96</v>
+      </c>
+      <c r="D126">
+        <v>191117933</v>
+      </c>
+      <c r="E126" t="s">
+        <v>56</v>
+      </c>
+      <c r="F126">
+        <v>21700471</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" s="2">
+        <v>43090</v>
+      </c>
+      <c r="C127" t="s">
+        <v>97</v>
+      </c>
+      <c r="D127">
+        <v>190627672</v>
+      </c>
+      <c r="E127" t="s">
+        <v>15</v>
+      </c>
+      <c r="F127">
+        <v>21003631</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" s="2">
+        <v>43090</v>
+      </c>
+      <c r="C128" t="s">
+        <v>64</v>
+      </c>
+      <c r="D128">
+        <v>191442627</v>
+      </c>
+      <c r="E128" t="s">
+        <v>8</v>
+      </c>
+      <c r="F128">
+        <v>21300209</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" s="2">
+        <v>43090</v>
+      </c>
+      <c r="C129" t="s">
+        <v>98</v>
+      </c>
+      <c r="D129">
+        <v>190481222</v>
+      </c>
+      <c r="E129" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129">
+        <v>21400023</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" s="2">
+        <v>43090</v>
+      </c>
+      <c r="C130" t="s">
+        <v>99</v>
+      </c>
+      <c r="D130">
+        <v>192571871</v>
+      </c>
+      <c r="E130" t="s">
+        <v>56</v>
+      </c>
+      <c r="F130">
+        <v>21700248</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131" s="2">
+        <v>43090</v>
+      </c>
+      <c r="C131" t="s">
+        <v>100</v>
+      </c>
+      <c r="D131">
+        <v>101458075</v>
+      </c>
+      <c r="E131" t="s">
+        <v>56</v>
+      </c>
+      <c r="F131">
+        <v>21700260</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132" s="2">
+        <v>43090</v>
+      </c>
+      <c r="C132" t="s">
+        <v>101</v>
+      </c>
+      <c r="D132">
+        <v>190996116</v>
+      </c>
+      <c r="E132" t="s">
+        <v>10</v>
+      </c>
+      <c r="F132">
+        <v>21400172</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>6</v>
+      </c>
+      <c r="B133" s="2">
+        <v>43090</v>
+      </c>
+      <c r="C133" t="s">
+        <v>102</v>
+      </c>
+      <c r="D133">
+        <v>191592754</v>
+      </c>
+      <c r="E133" t="s">
+        <v>15</v>
+      </c>
+      <c r="F133">
+        <v>21200103</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134" s="2">
+        <v>43090</v>
+      </c>
+      <c r="C134" t="s">
+        <v>103</v>
+      </c>
+      <c r="D134">
+        <v>191601374</v>
+      </c>
+      <c r="E134" t="s">
+        <v>18</v>
+      </c>
+      <c r="F134">
+        <v>20700959</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135" s="2">
+        <v>43090</v>
+      </c>
+      <c r="C135" t="s">
+        <v>104</v>
+      </c>
+      <c r="D135">
+        <v>190907223</v>
+      </c>
+      <c r="E135" t="s">
+        <v>15</v>
+      </c>
+      <c r="F135">
+        <v>21001537</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>6</v>
+      </c>
+      <c r="B136" s="2">
+        <v>43090</v>
+      </c>
+      <c r="C136" t="s">
+        <v>105</v>
+      </c>
+      <c r="D136">
+        <v>190882580</v>
+      </c>
+      <c r="E136" t="s">
+        <v>18</v>
+      </c>
+      <c r="F136">
+        <v>20701202</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137" s="2">
+        <v>43091</v>
+      </c>
+      <c r="C137" t="s">
+        <v>106</v>
+      </c>
+      <c r="D137">
+        <v>192008212</v>
+      </c>
+      <c r="E137" t="s">
+        <v>10</v>
+      </c>
+      <c r="F137">
+        <v>21600081</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>6</v>
+      </c>
+      <c r="B138" s="2">
+        <v>43091</v>
+      </c>
+      <c r="C138" t="s">
+        <v>107</v>
+      </c>
+      <c r="D138">
+        <v>190764622</v>
+      </c>
+      <c r="E138" t="s">
+        <v>10</v>
+      </c>
+      <c r="F138">
+        <v>21500347</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>6</v>
+      </c>
+      <c r="B139" s="2">
+        <v>43091</v>
+      </c>
+      <c r="C139" t="s">
+        <v>108</v>
+      </c>
+      <c r="D139">
+        <v>190125565</v>
+      </c>
+      <c r="E139" t="s">
+        <v>8</v>
+      </c>
+      <c r="F139">
+        <v>21400048</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>6</v>
+      </c>
+      <c r="B140" s="2">
+        <v>43091</v>
+      </c>
+      <c r="C140" t="s">
+        <v>109</v>
+      </c>
+      <c r="D140">
+        <v>190485575</v>
+      </c>
+      <c r="E140" t="s">
+        <v>15</v>
+      </c>
+      <c r="F140">
+        <v>21001426</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>6</v>
+      </c>
+      <c r="B141" s="2">
+        <v>43091</v>
+      </c>
+      <c r="C141" t="s">
+        <v>110</v>
+      </c>
+      <c r="D141">
+        <v>192258159</v>
+      </c>
+      <c r="E141" t="s">
+        <v>10</v>
+      </c>
+      <c r="F141">
+        <v>21300486</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>6</v>
+      </c>
+      <c r="B142" s="2">
+        <v>43091</v>
+      </c>
+      <c r="C142" t="s">
+        <v>110</v>
+      </c>
+      <c r="D142">
+        <v>192258159</v>
+      </c>
+      <c r="E142" t="s">
+        <v>10</v>
+      </c>
+      <c r="F142">
+        <v>21300875</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>6</v>
+      </c>
+      <c r="B143" s="2">
+        <v>43091</v>
+      </c>
+      <c r="C143" t="s">
+        <v>110</v>
+      </c>
+      <c r="D143">
+        <v>192258159</v>
+      </c>
+      <c r="E143" t="s">
+        <v>10</v>
+      </c>
+      <c r="F143">
+        <v>21400669</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>6</v>
+      </c>
+      <c r="B144" s="2">
+        <v>43091</v>
+      </c>
+      <c r="C144" t="s">
+        <v>111</v>
+      </c>
+      <c r="D144">
+        <v>691582198</v>
+      </c>
+      <c r="E144" t="s">
+        <v>10</v>
+      </c>
+      <c r="F144">
+        <v>21300504</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>6</v>
+      </c>
+      <c r="B145" s="2">
+        <v>43091</v>
+      </c>
+      <c r="C145" t="s">
+        <v>112</v>
+      </c>
+      <c r="D145">
+        <v>690852015</v>
+      </c>
+      <c r="E145" t="s">
+        <v>8</v>
+      </c>
+      <c r="F145">
+        <v>21500097</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>6</v>
+      </c>
+      <c r="B146" s="2">
+        <v>43091</v>
+      </c>
+      <c r="C146" t="s">
+        <v>113</v>
+      </c>
+      <c r="D146">
+        <v>691437006</v>
+      </c>
+      <c r="E146" t="s">
+        <v>56</v>
+      </c>
+      <c r="F146">
+        <v>21700364</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>6</v>
+      </c>
+      <c r="B147" s="2">
+        <v>43091</v>
+      </c>
+      <c r="C147" t="s">
+        <v>114</v>
+      </c>
+      <c r="D147">
+        <v>192662907</v>
+      </c>
+      <c r="E147" t="s">
+        <v>8</v>
+      </c>
+      <c r="F147">
+        <v>21500026</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>6</v>
+      </c>
+      <c r="B148" s="2">
+        <v>43091</v>
+      </c>
+      <c r="C148" t="s">
+        <v>115</v>
+      </c>
+      <c r="D148">
+        <v>191746777</v>
+      </c>
+      <c r="E148" t="s">
+        <v>10</v>
+      </c>
+      <c r="F148">
+        <v>21500497</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>6</v>
+      </c>
+      <c r="B149" s="2">
+        <v>43091</v>
+      </c>
+      <c r="C149" t="s">
+        <v>116</v>
+      </c>
+      <c r="D149">
+        <v>190908204</v>
+      </c>
+      <c r="E149" t="s">
+        <v>10</v>
+      </c>
+      <c r="F149">
+        <v>21300449</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>6</v>
+      </c>
+      <c r="B150" s="2">
+        <v>43091</v>
+      </c>
+      <c r="C150" t="s">
+        <v>39</v>
+      </c>
+      <c r="D150">
+        <v>190910021</v>
+      </c>
+      <c r="E150" t="s">
+        <v>10</v>
+      </c>
+      <c r="F150">
+        <v>21300419</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>6</v>
+      </c>
+      <c r="B151" s="2">
+        <v>43091</v>
+      </c>
+      <c r="C151" t="s">
+        <v>117</v>
+      </c>
+      <c r="D151">
+        <v>191639051</v>
+      </c>
+      <c r="E151" t="s">
+        <v>10</v>
+      </c>
+      <c r="F151">
+        <v>21600006</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>6</v>
+      </c>
+      <c r="B152" s="2">
+        <v>43091</v>
+      </c>
+      <c r="C152" t="s">
+        <v>118</v>
+      </c>
+      <c r="D152">
+        <v>690680017</v>
+      </c>
+      <c r="E152" t="s">
+        <v>15</v>
+      </c>
+      <c r="F152">
+        <v>21001398</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>6</v>
+      </c>
+      <c r="B153" s="2">
+        <v>43091</v>
+      </c>
+      <c r="C153" t="s">
+        <v>119</v>
+      </c>
+      <c r="D153">
+        <v>690456723</v>
+      </c>
+      <c r="E153" t="s">
+        <v>18</v>
+      </c>
+      <c r="F153">
+        <v>20615938</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>6</v>
+      </c>
+      <c r="B154" s="2">
+        <v>43095</v>
+      </c>
+      <c r="C154" t="s">
+        <v>120</v>
+      </c>
+      <c r="D154">
+        <v>191075793</v>
+      </c>
+      <c r="E154" t="s">
+        <v>18</v>
+      </c>
+      <c r="F154">
+        <v>20801420</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>6</v>
+      </c>
+      <c r="B155" s="2">
+        <v>43095</v>
+      </c>
+      <c r="C155" t="s">
+        <v>121</v>
+      </c>
+      <c r="D155">
+        <v>190991951</v>
+      </c>
+      <c r="E155" t="s">
+        <v>15</v>
+      </c>
+      <c r="F155">
+        <v>21001761</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>6</v>
+      </c>
+      <c r="B156" s="2">
+        <v>43095</v>
+      </c>
+      <c r="C156" t="s">
+        <v>122</v>
+      </c>
+      <c r="D156">
+        <v>190681343</v>
+      </c>
+      <c r="E156" t="s">
+        <v>15</v>
+      </c>
+      <c r="F156">
+        <v>21001562</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>6</v>
+      </c>
+      <c r="B157" s="2">
+        <v>43095</v>
+      </c>
+      <c r="C157" t="s">
+        <v>123</v>
+      </c>
+      <c r="D157">
+        <v>192664634</v>
+      </c>
+      <c r="E157" t="s">
+        <v>8</v>
+      </c>
+      <c r="F157">
+        <v>21300322</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>6</v>
+      </c>
+      <c r="B158" s="2">
+        <v>43095</v>
+      </c>
+      <c r="C158" t="s">
+        <v>124</v>
+      </c>
+      <c r="D158">
+        <v>192798947</v>
+      </c>
+      <c r="E158" t="s">
+        <v>10</v>
+      </c>
+      <c r="F158">
+        <v>21700007</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>6</v>
+      </c>
+      <c r="B159" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C159" t="s">
+        <v>125</v>
+      </c>
+      <c r="D159">
+        <v>191330310</v>
+      </c>
+      <c r="E159" t="s">
+        <v>10</v>
+      </c>
+      <c r="F159">
+        <v>21600038</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>6</v>
+      </c>
+      <c r="B160" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C160" t="s">
+        <v>126</v>
+      </c>
+      <c r="D160">
+        <v>100380886</v>
+      </c>
+      <c r="E160" t="s">
+        <v>10</v>
+      </c>
+      <c r="F160">
+        <v>21400094</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>6</v>
+      </c>
+      <c r="B161" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C161" t="s">
+        <v>127</v>
+      </c>
+      <c r="D161">
+        <v>190792505</v>
+      </c>
+      <c r="E161" t="s">
+        <v>18</v>
+      </c>
+      <c r="F161">
+        <v>20717084</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>6</v>
+      </c>
+      <c r="B162" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C162" t="s">
+        <v>127</v>
+      </c>
+      <c r="D162">
+        <v>190792505</v>
+      </c>
+      <c r="E162" t="s">
+        <v>10</v>
+      </c>
+      <c r="F162">
+        <v>21500189</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>6</v>
+      </c>
+      <c r="B163" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C163" t="s">
+        <v>128</v>
+      </c>
+      <c r="D163">
+        <v>190211111</v>
+      </c>
+      <c r="E163" t="s">
+        <v>10</v>
+      </c>
+      <c r="F163">
+        <v>21400271</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>6</v>
+      </c>
+      <c r="B164" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C164" t="s">
+        <v>129</v>
+      </c>
+      <c r="D164">
+        <v>491263880</v>
+      </c>
+      <c r="E164" t="s">
+        <v>15</v>
+      </c>
+      <c r="F164">
+        <v>21001415</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>6</v>
+      </c>
+      <c r="B165" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C165" t="s">
+        <v>130</v>
+      </c>
+      <c r="D165">
+        <v>190114143</v>
+      </c>
+      <c r="E165" t="s">
+        <v>15</v>
+      </c>
+      <c r="F165">
+        <v>21000010</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>6</v>
+      </c>
+      <c r="B166" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C166" t="s">
+        <v>131</v>
+      </c>
+      <c r="D166">
+        <v>192554200</v>
+      </c>
+      <c r="E166" t="s">
+        <v>10</v>
+      </c>
+      <c r="F166">
+        <v>21400133</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>6</v>
+      </c>
+      <c r="B167" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C167" t="s">
+        <v>132</v>
+      </c>
+      <c r="D167">
+        <v>190402160</v>
+      </c>
+      <c r="E167" t="s">
+        <v>18</v>
+      </c>
+      <c r="F167">
+        <v>20800533</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>6</v>
+      </c>
+      <c r="B168" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C168" t="s">
+        <v>133</v>
+      </c>
+      <c r="D168">
+        <v>690837174</v>
+      </c>
+      <c r="E168" t="s">
+        <v>134</v>
+      </c>
+      <c r="F168">
+        <v>21700006</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>6</v>
+      </c>
+      <c r="B169" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C169" t="s">
+        <v>133</v>
+      </c>
+      <c r="D169">
+        <v>690837174</v>
+      </c>
+      <c r="E169" t="s">
+        <v>134</v>
+      </c>
+      <c r="F169">
+        <v>21700221</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>6</v>
+      </c>
+      <c r="B170" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C170" t="s">
+        <v>133</v>
+      </c>
+      <c r="D170">
+        <v>690837174</v>
+      </c>
+      <c r="E170" t="s">
+        <v>134</v>
+      </c>
+      <c r="F170">
+        <v>21700396</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>6</v>
+      </c>
+      <c r="B171" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C171" t="s">
+        <v>133</v>
+      </c>
+      <c r="D171">
+        <v>690837174</v>
+      </c>
+      <c r="E171" t="s">
+        <v>49</v>
+      </c>
+      <c r="F171">
+        <v>12141</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>6</v>
+      </c>
+      <c r="B172" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C172" t="s">
+        <v>133</v>
+      </c>
+      <c r="D172">
+        <v>690837174</v>
+      </c>
+      <c r="E172" t="s">
+        <v>49</v>
+      </c>
+      <c r="F172">
+        <v>12145</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>6</v>
+      </c>
+      <c r="B173" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C173" t="s">
+        <v>133</v>
+      </c>
+      <c r="D173">
+        <v>690837174</v>
+      </c>
+      <c r="E173" t="s">
+        <v>49</v>
+      </c>
+      <c r="F173">
+        <v>12150</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>6</v>
+      </c>
+      <c r="B174" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C174" t="s">
+        <v>133</v>
+      </c>
+      <c r="D174">
+        <v>690837174</v>
+      </c>
+      <c r="E174" t="s">
+        <v>49</v>
+      </c>
+      <c r="F174">
+        <v>12241</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>6</v>
+      </c>
+      <c r="B175" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C175" t="s">
+        <v>133</v>
+      </c>
+      <c r="D175">
+        <v>690837174</v>
+      </c>
+      <c r="E175" t="s">
+        <v>49</v>
+      </c>
+      <c r="F175">
+        <v>12246</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>6</v>
+      </c>
+      <c r="B176" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C176" t="s">
+        <v>133</v>
+      </c>
+      <c r="D176">
+        <v>690837174</v>
+      </c>
+      <c r="E176" t="s">
+        <v>49</v>
+      </c>
+      <c r="F176">
+        <v>21002012</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>6</v>
+      </c>
+      <c r="B177" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C177" t="s">
+        <v>133</v>
+      </c>
+      <c r="D177">
+        <v>690837174</v>
+      </c>
+      <c r="E177" t="s">
+        <v>49</v>
+      </c>
+      <c r="F177">
+        <v>21200193</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>6</v>
+      </c>
+      <c r="B178" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C178" t="s">
+        <v>133</v>
+      </c>
+      <c r="D178">
+        <v>690837174</v>
+      </c>
+      <c r="E178" t="s">
+        <v>49</v>
+      </c>
+      <c r="F178">
+        <v>21300010</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>6</v>
+      </c>
+      <c r="B179" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C179" t="s">
+        <v>133</v>
+      </c>
+      <c r="D179">
+        <v>690837174</v>
+      </c>
+      <c r="E179" t="s">
+        <v>49</v>
+      </c>
+      <c r="F179">
+        <v>21300368</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>6</v>
+      </c>
+      <c r="B180" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C180" t="s">
+        <v>133</v>
+      </c>
+      <c r="D180">
+        <v>690837174</v>
+      </c>
+      <c r="E180" t="s">
+        <v>49</v>
+      </c>
+      <c r="F180">
+        <v>21300381</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>6</v>
+      </c>
+      <c r="B181" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C181" t="s">
+        <v>133</v>
+      </c>
+      <c r="D181">
+        <v>690837174</v>
+      </c>
+      <c r="E181" t="s">
+        <v>49</v>
+      </c>
+      <c r="F181">
+        <v>21400045</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>6</v>
+      </c>
+      <c r="B182" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C182" t="s">
+        <v>133</v>
+      </c>
+      <c r="D182">
+        <v>690837174</v>
+      </c>
+      <c r="E182" t="s">
+        <v>49</v>
+      </c>
+      <c r="F182">
+        <v>21400156</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>6</v>
+      </c>
+      <c r="B183" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C183" t="s">
+        <v>133</v>
+      </c>
+      <c r="D183">
+        <v>690837174</v>
+      </c>
+      <c r="E183" t="s">
+        <v>49</v>
+      </c>
+      <c r="F183">
+        <v>21400170</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>6</v>
+      </c>
+      <c r="B184" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C184" t="s">
+        <v>133</v>
+      </c>
+      <c r="D184">
+        <v>690837174</v>
+      </c>
+      <c r="E184" t="s">
+        <v>49</v>
+      </c>
+      <c r="F184">
+        <v>21400246</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>6</v>
+      </c>
+      <c r="B185" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C185" t="s">
+        <v>133</v>
+      </c>
+      <c r="D185">
+        <v>690837174</v>
+      </c>
+      <c r="E185" t="s">
+        <v>49</v>
+      </c>
+      <c r="F185">
+        <v>21400263</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>6</v>
+      </c>
+      <c r="B186" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C186" t="s">
+        <v>133</v>
+      </c>
+      <c r="D186">
+        <v>690837174</v>
+      </c>
+      <c r="E186" t="s">
+        <v>49</v>
+      </c>
+      <c r="F186">
+        <v>21400280</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>6</v>
+      </c>
+      <c r="B187" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C187" t="s">
+        <v>133</v>
+      </c>
+      <c r="D187">
+        <v>690837174</v>
+      </c>
+      <c r="E187" t="s">
+        <v>49</v>
+      </c>
+      <c r="F187">
+        <v>21400399</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>6</v>
+      </c>
+      <c r="B188" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C188" t="s">
+        <v>133</v>
+      </c>
+      <c r="D188">
+        <v>690837174</v>
+      </c>
+      <c r="E188" t="s">
+        <v>49</v>
+      </c>
+      <c r="F188">
+        <v>21400429</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>6</v>
+      </c>
+      <c r="B189" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C189" t="s">
+        <v>133</v>
+      </c>
+      <c r="D189">
+        <v>690837174</v>
+      </c>
+      <c r="E189" t="s">
+        <v>49</v>
+      </c>
+      <c r="F189">
+        <v>21400482</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>6</v>
+      </c>
+      <c r="B190" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C190" t="s">
+        <v>133</v>
+      </c>
+      <c r="D190">
+        <v>690837174</v>
+      </c>
+      <c r="E190" t="s">
+        <v>49</v>
+      </c>
+      <c r="F190">
+        <v>21500063</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>6</v>
+      </c>
+      <c r="B191" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C191" t="s">
+        <v>133</v>
+      </c>
+      <c r="D191">
+        <v>690837174</v>
+      </c>
+      <c r="E191" t="s">
+        <v>49</v>
+      </c>
+      <c r="F191">
+        <v>21500072</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>6</v>
+      </c>
+      <c r="B192" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C192" t="s">
+        <v>133</v>
+      </c>
+      <c r="D192">
+        <v>690837174</v>
+      </c>
+      <c r="E192" t="s">
+        <v>49</v>
+      </c>
+      <c r="F192">
+        <v>21500079</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>6</v>
+      </c>
+      <c r="B193" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C193" t="s">
+        <v>133</v>
+      </c>
+      <c r="D193">
+        <v>690837174</v>
+      </c>
+      <c r="E193" t="s">
+        <v>49</v>
+      </c>
+      <c r="F193">
+        <v>21500147</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>6</v>
+      </c>
+      <c r="B194" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C194" t="s">
+        <v>133</v>
+      </c>
+      <c r="D194">
+        <v>690837174</v>
+      </c>
+      <c r="E194" t="s">
+        <v>49</v>
+      </c>
+      <c r="F194">
+        <v>21500195</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>6</v>
+      </c>
+      <c r="B195" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C195" t="s">
+        <v>133</v>
+      </c>
+      <c r="D195">
+        <v>690837174</v>
+      </c>
+      <c r="E195" t="s">
+        <v>49</v>
+      </c>
+      <c r="F195">
+        <v>21500198</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>6</v>
+      </c>
+      <c r="B196" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C196" t="s">
+        <v>133</v>
+      </c>
+      <c r="D196">
+        <v>690837174</v>
+      </c>
+      <c r="E196" t="s">
+        <v>49</v>
+      </c>
+      <c r="F196">
+        <v>21500321</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>6</v>
+      </c>
+      <c r="B197" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C197" t="s">
+        <v>133</v>
+      </c>
+      <c r="D197">
+        <v>690837174</v>
+      </c>
+      <c r="E197" t="s">
+        <v>49</v>
+      </c>
+      <c r="F197">
+        <v>21500336</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>6</v>
+      </c>
+      <c r="B198" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C198" t="s">
+        <v>133</v>
+      </c>
+      <c r="D198">
+        <v>690837174</v>
+      </c>
+      <c r="E198" t="s">
+        <v>49</v>
+      </c>
+      <c r="F198">
+        <v>21500489</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>6</v>
+      </c>
+      <c r="B199" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C199" t="s">
+        <v>135</v>
+      </c>
+      <c r="D199">
+        <v>191363198</v>
+      </c>
+      <c r="E199" t="s">
+        <v>134</v>
+      </c>
+      <c r="F199">
+        <v>21700170</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>6</v>
+      </c>
+      <c r="B200" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C200" t="s">
+        <v>135</v>
+      </c>
+      <c r="D200">
+        <v>191363198</v>
+      </c>
+      <c r="E200" t="s">
+        <v>134</v>
+      </c>
+      <c r="F200">
+        <v>21700257</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>6</v>
+      </c>
+      <c r="B201" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C201" t="s">
+        <v>135</v>
+      </c>
+      <c r="D201">
+        <v>191363198</v>
+      </c>
+      <c r="E201" t="s">
+        <v>49</v>
+      </c>
+      <c r="F201">
+        <v>21400381</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>6</v>
+      </c>
+      <c r="B202" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C202" t="s">
+        <v>136</v>
+      </c>
+      <c r="D202">
+        <v>192379259</v>
+      </c>
+      <c r="E202" t="s">
+        <v>10</v>
+      </c>
+      <c r="F202">
+        <v>21400501</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>6</v>
+      </c>
+      <c r="B203" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C203" t="s">
+        <v>137</v>
+      </c>
+      <c r="D203">
+        <v>192711672</v>
+      </c>
+      <c r="E203" t="s">
+        <v>10</v>
+      </c>
+      <c r="F203">
+        <v>21400648</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>6</v>
+      </c>
+      <c r="B204" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C204" t="s">
+        <v>138</v>
+      </c>
+      <c r="D204">
+        <v>191035224</v>
+      </c>
+      <c r="E204" t="s">
+        <v>18</v>
+      </c>
+      <c r="F204">
+        <v>20616140</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>6</v>
+      </c>
+      <c r="B205" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C205" t="s">
+        <v>139</v>
+      </c>
+      <c r="D205">
+        <v>191753619</v>
+      </c>
+      <c r="E205" t="s">
+        <v>15</v>
+      </c>
+      <c r="F205">
+        <v>21100305</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>6</v>
+      </c>
+      <c r="B206" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C206" t="s">
+        <v>140</v>
+      </c>
+      <c r="D206">
+        <v>100429038</v>
+      </c>
+      <c r="E206" t="s">
+        <v>134</v>
+      </c>
+      <c r="F206">
+        <v>21700492</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>6</v>
+      </c>
+      <c r="B207" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C207" t="s">
+        <v>140</v>
+      </c>
+      <c r="D207">
+        <v>100429038</v>
+      </c>
+      <c r="E207" t="s">
+        <v>49</v>
+      </c>
+      <c r="F207">
+        <v>11946</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>6</v>
+      </c>
+      <c r="B208" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C208" t="s">
+        <v>140</v>
+      </c>
+      <c r="D208">
+        <v>100429038</v>
+      </c>
+      <c r="E208" t="s">
+        <v>49</v>
+      </c>
+      <c r="F208">
+        <v>12165</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>6</v>
+      </c>
+      <c r="B209" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C209" t="s">
+        <v>140</v>
+      </c>
+      <c r="D209">
+        <v>100429038</v>
+      </c>
+      <c r="E209" t="s">
+        <v>49</v>
+      </c>
+      <c r="F209">
+        <v>12182</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>6</v>
+      </c>
+      <c r="B210" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C210" t="s">
+        <v>140</v>
+      </c>
+      <c r="D210">
+        <v>100429038</v>
+      </c>
+      <c r="E210" t="s">
+        <v>49</v>
+      </c>
+      <c r="F210">
+        <v>12199</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>6</v>
+      </c>
+      <c r="B211" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C211" t="s">
+        <v>140</v>
+      </c>
+      <c r="D211">
+        <v>100429038</v>
+      </c>
+      <c r="E211" t="s">
+        <v>49</v>
+      </c>
+      <c r="F211">
+        <v>12229</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>6</v>
+      </c>
+      <c r="B212" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C212" t="s">
+        <v>140</v>
+      </c>
+      <c r="D212">
+        <v>100429038</v>
+      </c>
+      <c r="E212" t="s">
+        <v>49</v>
+      </c>
+      <c r="F212">
+        <v>12236</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>6</v>
+      </c>
+      <c r="B213" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C213" t="s">
+        <v>140</v>
+      </c>
+      <c r="D213">
+        <v>100429038</v>
+      </c>
+      <c r="E213" t="s">
+        <v>49</v>
+      </c>
+      <c r="F213">
+        <v>12250</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>6</v>
+      </c>
+      <c r="B214" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C214" t="s">
+        <v>140</v>
+      </c>
+      <c r="D214">
+        <v>100429038</v>
+      </c>
+      <c r="E214" t="s">
+        <v>49</v>
+      </c>
+      <c r="F214">
+        <v>12257</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>6</v>
+      </c>
+      <c r="B215" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C215" t="s">
+        <v>140</v>
+      </c>
+      <c r="D215">
+        <v>100429038</v>
+      </c>
+      <c r="E215" t="s">
+        <v>49</v>
+      </c>
+      <c r="F215">
+        <v>12258</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>6</v>
+      </c>
+      <c r="B216" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C216" t="s">
+        <v>140</v>
+      </c>
+      <c r="D216">
+        <v>100429038</v>
+      </c>
+      <c r="E216" t="s">
+        <v>49</v>
+      </c>
+      <c r="F216">
+        <v>12301</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>6</v>
+      </c>
+      <c r="B217" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C217" t="s">
+        <v>140</v>
+      </c>
+      <c r="D217">
+        <v>100429038</v>
+      </c>
+      <c r="E217" t="s">
+        <v>49</v>
+      </c>
+      <c r="F217">
+        <v>21001025</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>6</v>
+      </c>
+      <c r="B218" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C218" t="s">
+        <v>140</v>
+      </c>
+      <c r="D218">
+        <v>100429038</v>
+      </c>
+      <c r="E218" t="s">
+        <v>49</v>
+      </c>
+      <c r="F218">
+        <v>21200151</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>6</v>
+      </c>
+      <c r="B219" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C219" t="s">
+        <v>140</v>
+      </c>
+      <c r="D219">
+        <v>100429038</v>
+      </c>
+      <c r="E219" t="s">
+        <v>49</v>
+      </c>
+      <c r="F219">
+        <v>21300030</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>6</v>
+      </c>
+      <c r="B220" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C220" t="s">
+        <v>140</v>
+      </c>
+      <c r="D220">
+        <v>100429038</v>
+      </c>
+      <c r="E220" t="s">
+        <v>49</v>
+      </c>
+      <c r="F220">
+        <v>21300083</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>6</v>
+      </c>
+      <c r="B221" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C221" t="s">
+        <v>140</v>
+      </c>
+      <c r="D221">
+        <v>100429038</v>
+      </c>
+      <c r="E221" t="s">
+        <v>49</v>
+      </c>
+      <c r="F221">
+        <v>21300152</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>6</v>
+      </c>
+      <c r="B222" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C222" t="s">
+        <v>140</v>
+      </c>
+      <c r="D222">
+        <v>100429038</v>
+      </c>
+      <c r="E222" t="s">
+        <v>49</v>
+      </c>
+      <c r="F222">
+        <v>21300159</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>6</v>
+      </c>
+      <c r="B223" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C223" t="s">
+        <v>140</v>
+      </c>
+      <c r="D223">
+        <v>100429038</v>
+      </c>
+      <c r="E223" t="s">
+        <v>49</v>
+      </c>
+      <c r="F223">
+        <v>21300165</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>6</v>
+      </c>
+      <c r="B224" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C224" t="s">
+        <v>140</v>
+      </c>
+      <c r="D224">
+        <v>100429038</v>
+      </c>
+      <c r="E224" t="s">
+        <v>49</v>
+      </c>
+      <c r="F224">
+        <v>21300251</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>6</v>
+      </c>
+      <c r="B225" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C225" t="s">
+        <v>140</v>
+      </c>
+      <c r="D225">
+        <v>100429038</v>
+      </c>
+      <c r="E225" t="s">
+        <v>49</v>
+      </c>
+      <c r="F225">
+        <v>21300275</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>6</v>
+      </c>
+      <c r="B226" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C226" t="s">
+        <v>140</v>
+      </c>
+      <c r="D226">
+        <v>100429038</v>
+      </c>
+      <c r="E226" t="s">
+        <v>49</v>
+      </c>
+      <c r="F226">
+        <v>21300319</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>6</v>
+      </c>
+      <c r="B227" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C227" t="s">
+        <v>140</v>
+      </c>
+      <c r="D227">
+        <v>100429038</v>
+      </c>
+      <c r="E227" t="s">
+        <v>49</v>
+      </c>
+      <c r="F227">
+        <v>21400017</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>6</v>
+      </c>
+      <c r="B228" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C228" t="s">
+        <v>140</v>
+      </c>
+      <c r="D228">
+        <v>100429038</v>
+      </c>
+      <c r="E228" t="s">
+        <v>49</v>
+      </c>
+      <c r="F228">
+        <v>21500013</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>6</v>
+      </c>
+      <c r="B229" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C229" t="s">
+        <v>140</v>
+      </c>
+      <c r="D229">
+        <v>100429038</v>
+      </c>
+      <c r="E229" t="s">
+        <v>49</v>
+      </c>
+      <c r="F229">
+        <v>21500067</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>6</v>
+      </c>
+      <c r="B230" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C230" t="s">
+        <v>140</v>
+      </c>
+      <c r="D230">
+        <v>100429038</v>
+      </c>
+      <c r="E230" t="s">
+        <v>49</v>
+      </c>
+      <c r="F230">
+        <v>21500184</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>6</v>
+      </c>
+      <c r="B231" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C231" t="s">
+        <v>140</v>
+      </c>
+      <c r="D231">
+        <v>100429038</v>
+      </c>
+      <c r="E231" t="s">
+        <v>49</v>
+      </c>
+      <c r="F231">
+        <v>21500197</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>6</v>
+      </c>
+      <c r="B232" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C232" t="s">
+        <v>140</v>
+      </c>
+      <c r="D232">
+        <v>100429038</v>
+      </c>
+      <c r="E232" t="s">
+        <v>49</v>
+      </c>
+      <c r="F232">
+        <v>21500223</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>6</v>
+      </c>
+      <c r="B233" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C233" t="s">
+        <v>140</v>
+      </c>
+      <c r="D233">
+        <v>100429038</v>
+      </c>
+      <c r="E233" t="s">
+        <v>49</v>
+      </c>
+      <c r="F233">
+        <v>21500243</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>6</v>
+      </c>
+      <c r="B234" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C234" t="s">
+        <v>140</v>
+      </c>
+      <c r="D234">
+        <v>100429038</v>
+      </c>
+      <c r="E234" t="s">
+        <v>49</v>
+      </c>
+      <c r="F234">
+        <v>21500246</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>6</v>
+      </c>
+      <c r="B235" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C235" t="s">
+        <v>140</v>
+      </c>
+      <c r="D235">
+        <v>100429038</v>
+      </c>
+      <c r="E235" t="s">
+        <v>49</v>
+      </c>
+      <c r="F235">
+        <v>21500267</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>6</v>
+      </c>
+      <c r="B236" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C236" t="s">
+        <v>140</v>
+      </c>
+      <c r="D236">
+        <v>100429038</v>
+      </c>
+      <c r="E236" t="s">
+        <v>49</v>
+      </c>
+      <c r="F236">
+        <v>21500283</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>6</v>
+      </c>
+      <c r="B237" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C237" t="s">
+        <v>141</v>
+      </c>
+      <c r="D237">
+        <v>100207255</v>
+      </c>
+      <c r="E237" t="s">
+        <v>8</v>
+      </c>
+      <c r="F237">
+        <v>21300338</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>6</v>
+      </c>
+      <c r="B238" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C238" t="s">
+        <v>141</v>
+      </c>
+      <c r="D238">
+        <v>100207255</v>
+      </c>
+      <c r="E238" t="s">
+        <v>56</v>
+      </c>
+      <c r="F238">
+        <v>21700488</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>6</v>
+      </c>
+      <c r="B239" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C239" t="s">
+        <v>114</v>
+      </c>
+      <c r="D239">
+        <v>192662907</v>
+      </c>
+      <c r="E239" t="s">
+        <v>59</v>
+      </c>
+      <c r="F239">
+        <v>2110000000099</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>6</v>
+      </c>
+      <c r="B240" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C240" t="s">
+        <v>34</v>
+      </c>
+      <c r="D240">
+        <v>190732239</v>
+      </c>
+      <c r="E240" t="s">
+        <v>59</v>
+      </c>
+      <c r="F240">
+        <v>2100000000177</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>6</v>
+      </c>
+      <c r="B241" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C241" t="s">
+        <v>142</v>
+      </c>
+      <c r="D241">
+        <v>100177173</v>
+      </c>
+      <c r="E241" t="s">
+        <v>15</v>
+      </c>
+      <c r="F241">
+        <v>21002405</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>6</v>
+      </c>
+      <c r="B242" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C242" t="s">
+        <v>143</v>
+      </c>
+      <c r="D242">
+        <v>190526788</v>
+      </c>
+      <c r="E242" t="s">
+        <v>15</v>
+      </c>
+      <c r="F242">
+        <v>21000020</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>6</v>
+      </c>
+      <c r="B243" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C243" t="s">
+        <v>144</v>
+      </c>
+      <c r="D243">
+        <v>191651901</v>
+      </c>
+      <c r="E243" t="s">
+        <v>8</v>
+      </c>
+      <c r="F243">
+        <v>21500024</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>6</v>
+      </c>
+      <c r="B244" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C244" t="s">
+        <v>145</v>
+      </c>
+      <c r="D244">
+        <v>190902142</v>
+      </c>
+      <c r="E244" t="s">
+        <v>10</v>
+      </c>
+      <c r="F244">
+        <v>21300711</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>6</v>
+      </c>
+      <c r="B245" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C245" t="s">
+        <v>146</v>
+      </c>
+      <c r="D245">
+        <v>192819717</v>
+      </c>
+      <c r="E245" t="s">
+        <v>8</v>
+      </c>
+      <c r="F245">
+        <v>21300328</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>6</v>
+      </c>
+      <c r="B246" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C246" t="s">
+        <v>147</v>
+      </c>
+      <c r="D246">
+        <v>690604801</v>
+      </c>
+      <c r="E246" t="s">
+        <v>10</v>
+      </c>
+      <c r="F246">
+        <v>21600068</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>6</v>
+      </c>
+      <c r="B247" s="2">
+        <v>43096</v>
+      </c>
+      <c r="C247" t="s">
+        <v>148</v>
+      </c>
+      <c r="D247">
+        <v>190757155</v>
+      </c>
+      <c r="E247" t="s">
+        <v>12</v>
+      </c>
+      <c r="F247">
+        <v>21004182</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>